--- a/REVER_DailyTracker_20200828.xlsx
+++ b/REVER_DailyTracker_20200828.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BDD3D-1A56-4E1E-84EE-C5251871A48C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -70,19 +76,21 @@
   <si>
     <t xml:space="preserve">Regression testing on B2C and  Vastu shashtra site </t>
   </si>
+  <si>
+    <t>Creditdetail-QMVAR</t>
+  </si>
+  <si>
+    <t>Changes for new file for not_paid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,155 +124,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,7 +143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,188 +165,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -531,252 +215,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,7 +228,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -824,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -846,62 +288,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1159,27 +557,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="104.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1203,7 +601,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="24" customFormat="1" ht="28.9" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -1221,23 +619,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1268,29 +666,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="72.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1358,21 +754,21 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="20" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="20" spans="2:3">
       <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
@@ -1403,29 +799,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1469,23 +863,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1516,29 +910,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1564,7 +956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1575,7 +967,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1586,23 +978,23 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1633,29 +1025,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1699,23 +1089,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1746,29 +1136,246 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="10"/>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="11"/>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="12"/>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="10"/>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="11"/>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12"/>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="13"/>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1812,23 +1419,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1859,131 +1466,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="19" spans="3:3">
-      <c r="C19" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="11"/>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="12"/>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="13"/>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2027,23 +1530,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2074,29 +1577,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2140,23 +1641,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2187,29 +1688,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2253,23 +1752,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2300,120 +1799,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/REVER_DailyTracker_20200828.xlsx
+++ b/REVER_DailyTracker_20200828.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BDD3D-1A56-4E1E-84EE-C5251871A48C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FE6187-5F04-4AFC-9608-A5AC5913A0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t>Changes for new file for not_paid</t>
+  </si>
+  <si>
+    <t>Vastu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isuue fixing and add DB value in japanese language </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isuue fixing and add DB in japanese language </t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>isuue fixing vastu tips and homevastu</t>
+  </si>
+  <si>
+    <t>isuue fixing in vastu</t>
   </si>
 </sst>
 </file>
@@ -222,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -286,6 +304,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1144,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1585,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1624,26 +1648,99 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>44067</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>44068</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1"/>
-    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>44069</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>44070</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44071</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
     <row r="7" spans="1:7" s="1" customFormat="1"/>
     <row r="8" spans="1:7" s="1" customFormat="1"/>
     <row r="9" spans="1:7" s="1" customFormat="1"/>

--- a/REVER_DailyTracker_20200828.xlsx
+++ b/REVER_DailyTracker_20200828.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FE6187-5F04-4AFC-9608-A5AC5913A0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC4BEE6-00D0-4484-9ACE-6F66F67FFADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -99,6 +99,80 @@
   </si>
   <si>
     <t>isuue fixing in vastu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium Log Files Testing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify the Log Report  Selenium  Files to QMVAR., And Manually Download  Files to  GSPN to Check the record Counts </t>
+  </si>
+  <si>
+    <t>DRS Daily, ServicePartsReturn, GRSDaily, GRSDaily_Details, WarrantyDaily, POCDaily, PR_Summary, DRS Weekley</t>
+  </si>
+  <si>
+    <t>DRS Daily, ServicePartsReturn, GRSDaily, GRSDaily_Details, WarrantyDaily, POCDaily, PR_Summary</t>
+  </si>
+  <si>
+    <t>DRS Daily, ServicePartsReturn, GRSDaily, GRSDaily_Details, WarrantyDaily, POCDaily, PR_Summary, Invoice Update OOW</t>
+  </si>
+  <si>
+    <t>Vastu Shastra, selenium log file</t>
+  </si>
+  <si>
+    <t>Table database record insert and verification,  VS_AREA_MST table, design issues fix vastu search, and selenium log file count</t>
+  </si>
+  <si>
+    <t>AreaMaster, ContentMaster, Direction Master, Image Master, Score Master , Status Master ,User Master , Vastu Master, Vastu type Master</t>
+  </si>
+  <si>
+    <t>Vastu Master page design, and selenium log file count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vastu pages design changes, selenium log file count </t>
+  </si>
+  <si>
+    <t>Search Vastu, User Manage, Admin Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction History, Vastu Report generate, Contact </t>
+  </si>
+  <si>
+    <t>Content Management sub Menus browser tabs not showing menu names,   Vastu Master buttons alignments, Home Vastu container algnment</t>
+  </si>
+  <si>
+    <t>Master Pages textbox lables alignment in single lines, Japanease language button and text alignment  in single line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paging alignment, and designs, Over all Changes Checking, Login Page error msg alignment, Overall consolidate the files and verify to send the code </t>
+  </si>
+  <si>
+    <t>To Compare Latest Souce Code to local files and consolidate to send the code(Master Pages all), Search Vastu alignment,  Vastu Report command text box alignment</t>
+  </si>
+  <si>
+    <t>Vastu Master and User master Japanese Language alignment Issues to fix, Vastu Pdf alignment in html file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Master Pages Edit, Delete Buttons changes, Vastu Master Detailed and Create, </t>
+  </si>
+  <si>
+    <t>Vastu Shastra</t>
+  </si>
+  <si>
+    <t>Vastu Admin pages design changes</t>
+  </si>
+  <si>
+    <t>Vastu Master - Transaction Log Details(Create, Edit) Design Changes ,  Active/InActive Design Changes(All Master Pages Create, Edit), integrated code to local</t>
+  </si>
+  <si>
+    <t>Admin Vastu Master</t>
+  </si>
+  <si>
+    <t>"Alignment issue in Validation message
+Change the error message as Area and Direction is already exist
+Edit - Change Is Delete to Active/Inactive 
+Create - Active/Inactive checbox overlapped
+Edit/Delete column misaligned
+Remove Edit/Delete mouse hover in all pages"</t>
   </si>
 </sst>
 </file>
@@ -108,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +218,18 @@
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -184,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -233,6 +319,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -240,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -309,6 +421,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1496,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1536,66 +1672,493 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+    <row r="2" spans="1:7" ht="43.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>44046</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1"/>
-    <row r="6" spans="1:7" s="1" customFormat="1"/>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1"/>
-    <row r="9" spans="1:7" s="1" customFormat="1"/>
-    <row r="10" spans="1:7" s="1" customFormat="1"/>
-    <row r="11" spans="1:7" s="1" customFormat="1"/>
-    <row r="12" spans="1:7" s="1" customFormat="1"/>
-    <row r="13" spans="1:7" s="1" customFormat="1"/>
-    <row r="14" spans="1:7" s="1" customFormat="1"/>
-    <row r="15" spans="1:7" s="1" customFormat="1"/>
-    <row r="16" spans="1:7" s="1" customFormat="1"/>
-    <row r="17" spans="2:3" s="1" customFormat="1"/>
-    <row r="18" spans="2:3" s="1" customFormat="1"/>
-    <row r="19" spans="2:3" s="1" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="9" t="s">
+      <c r="F2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>44047</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>44048</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>44049</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
+      <c r="B6" s="19">
+        <v>44050</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
+      <c r="B7" s="19">
+        <v>44053</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
+      <c r="B8" s="19">
+        <v>44054</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44055</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44056</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44057</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="28.8">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44060</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="28.8">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44061</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>44062</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>44063</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>44064</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="57.6">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>44067</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="28.8">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>44068</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="28.8">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>44069</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <v>44070</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="100.8">
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>44071</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1"/>
+    <row r="31" spans="1:7">
+      <c r="C31" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="10"/>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="11"/>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="12"/>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="13"/>
+      <c r="C35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1609,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/REVER_DailyTracker_20200828.xlsx
+++ b/REVER_DailyTracker_20200828.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8B1E9B-B890-41EC-85CF-95C4836DDE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BB25B8-7F09-46F8-A4C9-BB17B6863A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -82,12 +82,6 @@
     <t>APK sent.</t>
   </si>
   <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
     <t>VastuShastra &amp; GSPN</t>
   </si>
   <si>
@@ -95,6 +89,12 @@
   </si>
   <si>
     <t>2) 20%</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Issues Fix </t>
   </si>
 </sst>
 </file>
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -238,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -289,6 +295,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,15 +622,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -644,7 +654,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -721,15 +731,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -832,15 +842,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -951,21 +961,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -991,46 +1001,132 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
+      <c r="B2" s="26">
+        <v>44071</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3">
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="9"/>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="10"/>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="11"/>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1084,23 +1180,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1195,23 +1291,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44071</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1306,135 +1514,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="33" customHeight="1">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
-        <v>44071</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1529,23 +1625,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1640,23 +1736,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1749,115 +1845,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/REVER_DailyTracker_20200828.xlsx
+++ b/REVER_DailyTracker_20200828.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BB25B8-7F09-46F8-A4C9-BB17B6863A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -26,8 +20,8 @@
     <sheet name="Mathes" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -95,12 +89,18 @@
   </si>
   <si>
     <t xml:space="preserve">Testing Issues Fix </t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>Implementing functionality for SONY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -304,7 +304,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -414,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -608,14 +608,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -960,11 +960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1070,11 +1070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1112,12 +1112,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26">
+        <v>44071</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1181,7 +1193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1292,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1404,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1515,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1626,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1737,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
